--- a/Total War Battleship.xlsx
+++ b/Total War Battleship.xlsx
@@ -5,15 +5,18 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Dragoon\Desktop\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\A\ITEM\UNITY\Total War Battleship\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BBF8144B-C133-4B8C-B315-198B3BE3428F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4251A8E0-DA05-4D3D-AD17-2F4FD6C58420}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="6130" yWindow="370" windowWidth="18710" windowHeight="12480" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="3000" yWindow="640" windowWidth="18710" windowHeight="12480" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
+    <sheet name="概论" sheetId="1" r:id="rId1"/>
+    <sheet name="战斗" sheetId="2" r:id="rId2"/>
+    <sheet name="镜头" sheetId="3" r:id="rId3"/>
+    <sheet name="移动" sheetId="4" r:id="rId4"/>
   </sheets>
   <calcPr calcId="162913"/>
   <extLst>
@@ -25,9 +28,80 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1" uniqueCount="1">
-  <si>
-    <t>按住屏幕不放，激活“拖动视角”功能。</t>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="19" uniqueCount="19">
+  <si>
+    <t>做了一个武器系统的脚本，挂在炮塔根节点上。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>武器都有一个平行的扇形索敌区域（可设置）。如果区域内有敌人，炮台就会开始瞄准。在瞄准到差不多——一个更小的扇形的时候，就会开始开火。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>每次开火，会有一个冷却时间。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>武器有个简单的状态机，用来实现待机，旋转瞄准，开火</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>武器是自动开火的。一艘船可以搭载若干个武器。</t>
+  </si>
+  <si>
+    <t>使用CinemachineCamera</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>按住鼠标或者屏幕拖拽，可以自由移动镜头</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>按住滚轮，可以缩放镜头。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>船移动时，镜头会跟着动。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>镜头有缓冲，所以突然变速时，有一个镜头偏移的效果。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>由SHIP脚本控制</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>通过点击屏幕上的按钮控制移动</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>有4个前进档和一个倒档</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>3个方向按钮，点击就可以一直转向或者点向前按钮停止。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>移动是修改刚体的速度值来实现的，有加速和减速的过程。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>通过UI按钮控制船只姿态</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>自动索敌自动开火</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>用户输入使用了InputSystem_Actions监控。因此点击屏幕和鼠标点击左键激活的是一样的操作。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>这套目前用的是默认的，因此有很多冗余操作。后续可以去掉或修改。</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -353,15 +427,155 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1"/>
+  <dimension ref="A1:A4"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="G9" sqref="G9"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14" x14ac:dyDescent="0.3"/>
   <sheetData>
     <row r="1" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="2" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A2" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="3" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A3" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="4" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A4" t="s">
+        <v>18</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{32D59591-ED35-4453-915E-8FFEFECDFD3A}">
+  <dimension ref="A2:A7"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A9" sqref="A9"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14" x14ac:dyDescent="0.3"/>
+  <sheetData>
+    <row r="2" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A2" t="s">
         <v>0</v>
+      </c>
+    </row>
+    <row r="3" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="5" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A5" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="6" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A6" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="7" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A7" t="s">
+        <v>3</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6C564F08-D798-4722-B899-71B074EC92DC}">
+  <dimension ref="A1:A5"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A6" sqref="A6"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14" x14ac:dyDescent="0.3"/>
+  <sheetData>
+    <row r="1" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A1" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="2" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A2" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="3" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A3" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="4" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A4" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="5" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A5" t="s">
+        <v>9</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{BBFD5168-9194-4E99-81D5-5909E541B86F}">
+  <dimension ref="A1:A5"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A6" sqref="A6"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14" x14ac:dyDescent="0.3"/>
+  <sheetData>
+    <row r="1" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A1" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="2" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A2" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="3" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A3" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="4" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A4" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="5" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A5" t="s">
+        <v>14</v>
       </c>
     </row>
   </sheetData>
